--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1375.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1375.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.247105968280678</v>
+        <v>1.244664430618286</v>
       </c>
       <c r="B1">
-        <v>2.551137667282092</v>
+        <v>2.59766697883606</v>
       </c>
       <c r="C1">
-        <v>3.476783570294062</v>
+        <v>7.982121467590332</v>
       </c>
       <c r="D1">
-        <v>3.100178092284624</v>
+        <v>2.132286787033081</v>
       </c>
       <c r="E1">
-        <v>1.107836378995787</v>
+        <v>1.139056801795959</v>
       </c>
     </row>
   </sheetData>
